--- a/linear_regressions/thread_size/author_threshold/conspiracy_regression_metrics.xlsx
+++ b/linear_regressions/thread_size/author_threshold/conspiracy_regression_metrics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snuzz\Documents\PhD\datasets\reddit_analyses\reddit_analyses\linear_regressions\thread_size\author_threshold\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFD152F-A557-4625-91CD-E5A2EEF1A29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,20 @@
     <sheet name="p1_mod7" sheetId="11" r:id="rId11"/>
     <sheet name="p1_mod8" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -267,8 +286,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,24 +342,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +409,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -409,6 +443,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -443,9 +478,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,14 +654,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,7 +687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -673,7 +711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -681,7 +719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -705,7 +743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -721,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -743,14 +781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,63 +799,63 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.30821065535752</v>
+        <v>2.3082106553575201</v>
       </c>
       <c r="C2">
         <v>0.1028789600043724</v>
       </c>
       <c r="D2">
-        <v>9.809540839191197E-104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9.8095408391911969E-104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B3">
-        <v>-0.0378741631074626</v>
+        <v>-3.7874163107462597E-2</v>
       </c>
       <c r="C3">
-        <v>0.02948391091878235</v>
+        <v>2.9483910918782351E-2</v>
       </c>
       <c r="D3">
         <v>0.1990344349209188</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B4">
-        <v>0.005647893320105378</v>
+        <v>5.6478933201053782E-3</v>
       </c>
       <c r="C4">
-        <v>0.003301690675219877</v>
+        <v>3.3016906752198769E-3</v>
       </c>
       <c r="D4">
-        <v>0.08724972563364609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.7249725633646094E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>-0.01584241864177949</v>
+        <v>-1.5842418641779491E-2</v>
       </c>
       <c r="C5">
-        <v>0.01179211155560942</v>
+        <v>1.1792111555609421E-2</v>
       </c>
       <c r="D5">
-        <v>0.179212186380916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.17921218638091599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -825,38 +863,38 @@
         <v>0.3590156540718758</v>
       </c>
       <c r="C6">
-        <v>0.05607015582458316</v>
+        <v>5.6070155824583162E-2</v>
       </c>
       <c r="D6">
         <v>1.744269270819142E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B7">
-        <v>-0.0914350589017166</v>
+        <v>-9.1435058901716604E-2</v>
       </c>
       <c r="C7">
-        <v>0.2815309220731232</v>
+        <v>0.28153092207312319</v>
       </c>
       <c r="D7">
-        <v>0.7453700847637675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.74537008476376754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B8">
-        <v>0.03662422835156999</v>
+        <v>3.662422835156999E-2</v>
       </c>
       <c r="C8">
-        <v>0.02078637915324966</v>
+        <v>2.078637915324966E-2</v>
       </c>
       <c r="D8">
-        <v>0.07817494206842726</v>
+        <v>7.8174942068427261E-2</v>
       </c>
     </row>
   </sheetData>
@@ -865,14 +903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,116 +921,116 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.312472646531529</v>
+        <v>2.3124726465315288</v>
       </c>
       <c r="C2">
-        <v>0.1045801037879898</v>
+        <v>0.10458010378798981</v>
       </c>
       <c r="D2">
-        <v>5.225005655293273E-101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5.2250056552932733E-101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B3">
-        <v>-0.03924425791252684</v>
+        <v>-3.9244257912526843E-2</v>
       </c>
       <c r="C3">
-        <v>0.03009495500304946</v>
+        <v>3.009495500304946E-2</v>
       </c>
       <c r="D3">
         <v>0.1923214993812345</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B4">
-        <v>-0.02219278357739674</v>
+        <v>-2.2192783577396739E-2</v>
       </c>
       <c r="C4">
-        <v>0.09739063892566176</v>
+        <v>9.7390638925661757E-2</v>
       </c>
       <c r="D4">
-        <v>0.8197586971788109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.81975869717881089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B5">
-        <v>0.005679564649172707</v>
+        <v>5.6795646491727067E-3</v>
       </c>
       <c r="C5">
-        <v>0.003305098511874027</v>
+        <v>3.3050985118740269E-3</v>
       </c>
       <c r="D5">
-        <v>0.08581485288737781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.5814852887377807E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B6">
-        <v>-0.01587692540700646</v>
+        <v>-1.587692540700646E-2</v>
       </c>
       <c r="C6">
-        <v>0.01179481305927035</v>
+        <v>1.179481305927035E-2</v>
       </c>
       <c r="D6">
-        <v>0.1783666547157925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.17836665471579249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B7">
-        <v>0.3588827247612867</v>
+        <v>0.35888272476128669</v>
       </c>
       <c r="C7">
-        <v>0.05608141288444345</v>
+        <v>5.6081412884443453E-2</v>
       </c>
       <c r="D7">
         <v>1.786079237860233E-10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B8">
-        <v>-0.08791047401799831</v>
+        <v>-8.7910474017998314E-2</v>
       </c>
       <c r="C8">
-        <v>0.2819967125061894</v>
+        <v>0.28199671250618941</v>
       </c>
       <c r="D8">
-        <v>0.7552560268465858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.75525602684658577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B9">
-        <v>0.03673996650567463</v>
+        <v>3.6739966505674633E-2</v>
       </c>
       <c r="C9">
-        <v>0.02079563096984049</v>
+        <v>2.0795630969840492E-2</v>
       </c>
       <c r="D9">
-        <v>0.07737023290987835</v>
+        <v>7.737023290987835E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1001,14 +1039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1019,77 +1057,77 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.312398341527082</v>
+        <v>2.3123983415270821</v>
       </c>
       <c r="C2">
-        <v>0.1045962237297662</v>
+        <v>0.10459622372976619</v>
       </c>
       <c r="D2">
-        <v>5.682903681418516E-101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5.6829036814185163E-101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B3">
-        <v>-0.0390440654125432</v>
+        <v>-3.9044065412543197E-2</v>
       </c>
       <c r="C3">
-        <v>0.03011512574737946</v>
+        <v>3.011512574737946E-2</v>
       </c>
       <c r="D3">
-        <v>0.1948980991064742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.19489809910647421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B4">
-        <v>-0.02325244557818654</v>
+        <v>-2.325244557818654E-2</v>
       </c>
       <c r="C4">
-        <v>0.09754103809504251</v>
+        <v>9.7541038095042512E-2</v>
       </c>
       <c r="D4">
-        <v>0.8115966220487182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.81159662204871819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B5">
-        <v>0.005659819063634107</v>
+        <v>5.6598190636341066E-3</v>
       </c>
       <c r="C5">
-        <v>0.003306980095482786</v>
+        <v>3.3069800954827859E-3</v>
       </c>
       <c r="D5">
-        <v>0.08708914022647922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.708914022647922E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B6">
-        <v>-0.01584263125838935</v>
+        <v>-1.5842631258389351E-2</v>
       </c>
       <c r="C6">
-        <v>0.0117977374938613</v>
+        <v>1.17977374938613E-2</v>
       </c>
       <c r="D6">
-        <v>0.1794137912913157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.17941379129131571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1097,52 +1135,52 @@
         <v>0.3601918636525055</v>
       </c>
       <c r="C7">
-        <v>0.056449210784174</v>
+        <v>5.6449210784174003E-2</v>
       </c>
       <c r="D7">
-        <v>2.012868247003298E-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2.0128682470032979E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B8">
-        <v>-0.0050361848037754</v>
+        <v>-5.0361848037754004E-3</v>
       </c>
       <c r="C8">
-        <v>0.02446861046639306</v>
+        <v>2.4468610466393061E-2</v>
       </c>
       <c r="D8">
-        <v>0.8369427163063365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.83694271630633654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B9">
-        <v>-0.09356068985399382</v>
+        <v>-9.3560689853993823E-2</v>
       </c>
       <c r="C9">
-        <v>0.2833713516433886</v>
+        <v>0.28337135164338861</v>
       </c>
       <c r="D9">
-        <v>0.7412929972385889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.74129299723858888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B10">
-        <v>0.03660648694741238</v>
+        <v>3.6606486947412378E-2</v>
       </c>
       <c r="C10">
-        <v>0.02080882069050653</v>
+        <v>2.0808820690506529E-2</v>
       </c>
       <c r="D10">
-        <v>0.07864136950003676</v>
+        <v>7.8641369500036765E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1151,14 +1189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1192,13 +1230,13 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>0.014323324609403</v>
+        <v>1.4323324609403E-2</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1212,13 +1250,13 @@
         <v>38</v>
       </c>
       <c r="E3">
-        <v>0.015577496628845</v>
+        <v>1.5577496628845E-2</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1232,13 +1270,13 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>0.01647286980836171</v>
+        <v>1.6472869808361709E-2</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1252,13 +1290,13 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>0.01705155466127828</v>
+        <v>1.7051554661278279E-2</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1272,13 +1310,13 @@
         <v>41</v>
       </c>
       <c r="E6">
-        <v>0.01754406230073846</v>
+        <v>1.7544062300738461E-2</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1292,13 +1330,13 @@
         <v>42</v>
       </c>
       <c r="E7">
-        <v>0.01757611513961854</v>
+        <v>1.7576115139618539E-2</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1312,13 +1350,13 @@
         <v>43</v>
       </c>
       <c r="E8">
-        <v>0.01759189887200741</v>
+        <v>1.7591898872007409E-2</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1332,7 +1370,7 @@
         <v>44</v>
       </c>
       <c r="E9">
-        <v>0.01760477940947036</v>
+        <v>1.7604779409470361E-2</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -1344,14 +1382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1373,13 +1413,13 @@
         <v>56</v>
       </c>
       <c r="C2">
-        <v>0.014323324609403</v>
+        <v>1.4323324609403E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1387,13 +1427,13 @@
         <v>57</v>
       </c>
       <c r="C3">
-        <v>0.01557749662884511</v>
+        <v>1.5577496628845109E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1401,13 +1441,13 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>0.01647286980836205</v>
+        <v>1.6472869808362049E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1415,13 +1455,13 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>0.01705155466127828</v>
+        <v>1.7051554661278279E-2</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1429,13 +1469,13 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.01754406230073857</v>
+        <v>1.7544062300738569E-2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1443,13 +1483,13 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>0.01757611513961854</v>
+        <v>1.7576115139618539E-2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1457,13 +1497,13 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>0.01759189887200763</v>
+        <v>1.7591898872007631E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1471,9 +1511,19 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>0.01760477940947036</v>
+        <v>1.7604779409470361E-2</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>MAX(C2:C9)</f>
+        <v>1.7604779409470361E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f>MAX(D2:D9)</f>
         <v>0</v>
       </c>
     </row>
@@ -1483,14 +1533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +1556,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1518,8 +1570,8 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1528,6 +1580,12 @@
       </c>
       <c r="D3">
         <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>SUM(D2:D3)</f>
+        <v>2780</v>
       </c>
     </row>
   </sheetData>
@@ -1539,14 +1597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1557,32 +1615,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.430568089488116</v>
+        <v>2.4305680894881161</v>
       </c>
       <c r="C2">
-        <v>0.03829805888393666</v>
+        <v>3.8298058883936663E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.3715579630418063</v>
+        <v>0.37155796304180633</v>
       </c>
       <c r="C3">
-        <v>0.05416683668431344</v>
+        <v>5.4166836684313442E-2</v>
       </c>
       <c r="D3">
-        <v>8.243077707680735E-12</v>
+        <v>8.2430777076807354E-12</v>
       </c>
     </row>
   </sheetData>
@@ -1591,14 +1649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1609,46 +1667,46 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.31424161008609</v>
+        <v>2.3142416100860901</v>
       </c>
       <c r="C2">
-        <v>0.06889538708012137</v>
+        <v>6.889538708012137E-2</v>
       </c>
       <c r="D2">
-        <v>1.730413643167883E-212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.7304136431678829E-212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.3585721792044195</v>
+        <v>0.35857217920441953</v>
       </c>
       <c r="C3">
-        <v>0.05451704568737088</v>
+        <v>5.4517045687370883E-2</v>
       </c>
       <c r="D3">
-        <v>5.566955180902956E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5.5669551809029562E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4">
-        <v>0.03973340746582055</v>
+        <v>3.9733407465820547E-2</v>
       </c>
       <c r="C4">
-        <v>0.01956575783583906</v>
+        <v>1.9565757835839061E-2</v>
       </c>
       <c r="D4">
-        <v>0.04236066835498212</v>
+        <v>4.2360668354982117E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1657,14 +1715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1675,60 +1733,60 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.244612846228435</v>
+        <v>2.2446128462284349</v>
       </c>
       <c r="C2">
-        <v>0.07993387475113481</v>
+        <v>7.9933874751134809E-2</v>
       </c>
       <c r="D2">
-        <v>1.836540226135637E-155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.8365402261356371E-155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.005653302302638498</v>
+        <v>5.6533023026384983E-3</v>
       </c>
       <c r="C3">
-        <v>0.003293738259092039</v>
+        <v>3.2937382590920391E-3</v>
       </c>
       <c r="D3">
-        <v>0.08618844985035172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8.618844985035172E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.3596739693456109</v>
+        <v>0.35967396934561091</v>
       </c>
       <c r="C4">
-        <v>0.05450444661552022</v>
+        <v>5.4504446615520223E-2</v>
       </c>
       <c r="D4">
-        <v>4.818572268143806E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4.8185722681438061E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5">
-        <v>0.03924428575273933</v>
+        <v>3.9244285752739333E-2</v>
       </c>
       <c r="C5">
-        <v>0.01956195522141818</v>
+        <v>1.9561955221418181E-2</v>
       </c>
       <c r="D5">
-        <v>0.04492294286993365</v>
+        <v>4.4922942869933653E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1737,14 +1795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,74 +1813,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.29756559487165</v>
+        <v>2.2975655948716498</v>
       </c>
       <c r="C2">
-        <v>0.08865620154601189</v>
+        <v>8.8656201546011892E-2</v>
       </c>
       <c r="D2">
         <v>1.031825713029514E-134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.005671058609704381</v>
+        <v>5.6710586097043813E-3</v>
       </c>
       <c r="C3">
-        <v>0.003293303159743658</v>
+        <v>3.293303159743658E-3</v>
       </c>
       <c r="D3">
-        <v>0.08516562643808891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8.5165626438088907E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B4">
-        <v>-0.016266267220792</v>
+        <v>-1.6266267220792E-2</v>
       </c>
       <c r="C4">
-        <v>0.01178677715563665</v>
+        <v>1.1786777155636649E-2</v>
       </c>
       <c r="D4">
-        <v>0.1676685616447474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.16766856164474739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5">
-        <v>0.3597516065437784</v>
+        <v>0.35975160654377841</v>
       </c>
       <c r="C5">
-        <v>0.05449685975975791</v>
+        <v>5.4496859759757911E-2</v>
       </c>
       <c r="D5">
         <v>4.744224007632413E-11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B6">
-        <v>0.03910037338350544</v>
+        <v>3.9100373383505443E-2</v>
       </c>
       <c r="C6">
-        <v>0.01955949982218553</v>
+        <v>1.9559499822185529E-2</v>
       </c>
       <c r="D6">
-        <v>0.0456867076248999</v>
+        <v>4.5686707624899903E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1831,14 +1889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1849,63 +1907,63 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.291336100917137</v>
+        <v>2.2913361009171371</v>
       </c>
       <c r="C2">
-        <v>0.08878259856311202</v>
+        <v>8.878259856311202E-2</v>
       </c>
       <c r="D2">
-        <v>1.035468043669602E-133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0354680436696021E-133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B3">
-        <v>-0.03750833735659786</v>
+        <v>-3.7508337356597858E-2</v>
       </c>
       <c r="C3">
-        <v>0.02945831222383388</v>
+        <v>2.9458312223833879E-2</v>
       </c>
       <c r="D3">
-        <v>0.2030143380032766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.20301433800327659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B4">
-        <v>0.00557612058692124</v>
+        <v>5.5761205869212403E-3</v>
       </c>
       <c r="C4">
-        <v>0.003293831044592307</v>
+        <v>3.2938310445923069E-3</v>
       </c>
       <c r="D4">
-        <v>0.09057116418729928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.0571164187299283E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>-0.0158369212873805</v>
+        <v>-1.5836921287380502E-2</v>
       </c>
       <c r="C5">
-        <v>0.0117904684566751</v>
+        <v>1.1790468456675101E-2</v>
       </c>
       <c r="D5">
-        <v>0.179302457974918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.17930245797491801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1913,24 +1971,24 @@
         <v>0.3632045003561703</v>
       </c>
       <c r="C6">
-        <v>0.05455906501626499</v>
+        <v>5.4559065016264993E-2</v>
       </c>
       <c r="D6">
-        <v>3.268486353265556E-11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.2684863532655562E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B7">
-        <v>0.03890795848491895</v>
+        <v>3.8907958484918952E-2</v>
       </c>
       <c r="C7">
-        <v>0.01955820592947943</v>
+        <v>1.955820592947943E-2</v>
       </c>
       <c r="D7">
-        <v>0.0467475818094082</v>
+        <v>4.6747581809408197E-2</v>
       </c>
     </row>
   </sheetData>
